--- a/Data/EC/NIT-8001977764.xlsx
+++ b/Data/EC/NIT-8001977764.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7B511E7B-B46F-42C7-A2FD-E71F612F488C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{84FEAF1A-2409-4CDD-958C-12A96B4FA814}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{57E1E574-65D9-467C-AF0C-DAFE94025D9E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EFAB6089-A775-462E-90C6-FE8DFF35748D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="38">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,49 +65,58 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1129565103</t>
+  </si>
+  <si>
+    <t>FARID SIR ARRIETA</t>
+  </si>
+  <si>
+    <t>1811</t>
+  </si>
+  <si>
     <t>1143353859</t>
   </si>
   <si>
     <t>YOIBER MIRANDA GUERRA</t>
   </si>
   <si>
+    <t>1712</t>
+  </si>
+  <si>
+    <t>1711</t>
+  </si>
+  <si>
+    <t>1710</t>
+  </si>
+  <si>
+    <t>1709</t>
+  </si>
+  <si>
+    <t>1708</t>
+  </si>
+  <si>
+    <t>1707</t>
+  </si>
+  <si>
+    <t>1706</t>
+  </si>
+  <si>
+    <t>1705</t>
+  </si>
+  <si>
+    <t>1704</t>
+  </si>
+  <si>
+    <t>1703</t>
+  </si>
+  <si>
     <t>1702</t>
   </si>
   <si>
-    <t>1703</t>
-  </si>
-  <si>
-    <t>1704</t>
-  </si>
-  <si>
-    <t>1705</t>
-  </si>
-  <si>
-    <t>1706</t>
-  </si>
-  <si>
     <t>73083976</t>
   </si>
   <si>
     <t>EDGARDO JOSE FERNANDEZ SALGUEDO</t>
-  </si>
-  <si>
-    <t>1707</t>
-  </si>
-  <si>
-    <t>1708</t>
-  </si>
-  <si>
-    <t>1709</t>
-  </si>
-  <si>
-    <t>1710</t>
-  </si>
-  <si>
-    <t>1711</t>
-  </si>
-  <si>
-    <t>1712</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -521,7 +530,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ED4BDC39-993A-E2CA-02BC-A2B9574274FE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65EAF646-660D-86B3-ED77-AF9FB4BCA5AE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -872,8 +881,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8CABE958-8BE5-4BF1-80B3-125A1762B574}">
-  <dimension ref="B2:J33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{620F4110-2AB8-4EFF-921A-6A69263F8A81}">
+  <dimension ref="B2:J34"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -897,7 +906,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -942,7 +951,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -974,12 +983,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>304342</v>
+        <v>496342</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -990,17 +999,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="F13" s="5">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1027,13 +1036,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1050,10 +1059,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>27578</v>
+        <v>192000</v>
       </c>
       <c r="G16" s="18">
-        <v>737717</v>
+        <v>1100000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1064,13 +1073,13 @@
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>27578</v>
@@ -1087,13 +1096,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>27578</v>
@@ -1110,13 +1119,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>27578</v>
@@ -1133,13 +1142,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>27578</v>
@@ -1156,16 +1165,16 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
-        <v>984</v>
+        <v>27578</v>
       </c>
       <c r="G21" s="18">
         <v>737717</v>
@@ -1179,13 +1188,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>27578</v>
@@ -1202,13 +1211,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F23" s="18">
         <v>27578</v>
@@ -1225,13 +1234,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F24" s="18">
         <v>27578</v>
@@ -1248,13 +1257,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F25" s="18">
         <v>27578</v>
@@ -1271,13 +1280,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F26" s="18">
         <v>27578</v>
@@ -1290,56 +1299,79 @@
       <c r="J26" s="20"/>
     </row>
     <row r="27" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B27" s="21" t="s">
+      <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="C27" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E27" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="24">
+      <c r="C27" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="F27" s="18">
         <v>27578</v>
       </c>
-      <c r="G27" s="24">
+      <c r="G27" s="18">
         <v>737717</v>
       </c>
-      <c r="H27" s="25"/>
-      <c r="I27" s="25"/>
-      <c r="J27" s="26"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="32"/>
-      <c r="H32" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="I32" s="1"/>
-      <c r="J32" s="1"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="J27" s="20"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B28" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="24">
+        <v>984</v>
+      </c>
+      <c r="G28" s="24">
+        <v>737717</v>
+      </c>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="C33" s="32"/>
       <c r="H33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="32" t="s">
+        <v>35</v>
+      </c>
+      <c r="C34" s="32"/>
+      <c r="H34" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I34" s="1"/>
+      <c r="J34" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="H34:J34"/>
     <mergeCell ref="H33:J33"/>
-    <mergeCell ref="H32:J32"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
